--- a/data/parent_table_edit.xlsx
+++ b/data/parent_table_edit.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t xml:space="preserve">郑9805/中黄13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P0008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P0009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test2</t>
   </si>
 </sst>
 </file>
@@ -637,6 +649,30 @@
         <v>29</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/parent_table_edit.xlsx
+++ b/data/parent_table_edit.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -126,18 +126,6 @@
   </si>
   <si>
     <t xml:space="preserve">郑9805/中黄13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P0008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P0009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test2</t>
   </si>
 </sst>
 </file>
@@ -649,30 +637,6 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
